--- a/QQ_bimod.xlsx
+++ b/QQ_bimod.xlsx
@@ -411,7 +411,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.045056143847623</v>
+        <v>1.045056143847622</v>
       </c>
     </row>
     <row r="12">
@@ -491,7 +491,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>1.761766443981282</v>
+        <v>1.761766443981281</v>
       </c>
     </row>
     <row r="28">
@@ -526,7 +526,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>2.089347266495822</v>
+        <v>2.089347266495821</v>
       </c>
     </row>
     <row r="35">
@@ -596,7 +596,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>3.086551399440507</v>
+        <v>3.086551399440506</v>
       </c>
     </row>
     <row r="49">
@@ -641,7 +641,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>4.8160549259346</v>
+        <v>4.816054925934599</v>
       </c>
     </row>
     <row r="58">
@@ -671,7 +671,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>5.51879138268442</v>
+        <v>5.518791382684419</v>
       </c>
     </row>
     <row r="64">
